--- a/lista.xlsx
+++ b/lista.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>Relação de Alunos</t>
   </si>
@@ -727,8 +727,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,13 +795,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -813,11 +813,11 @@
       <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -829,11 +829,11 @@
       <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -845,9 +845,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -859,11 +857,11 @@
       <c r="C9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -875,11 +873,11 @@
       <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -889,15 +887,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -909,11 +905,11 @@
       <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -923,17 +919,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -943,13 +935,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -961,11 +953,11 @@
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -981,9 +973,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -998,12 +988,8 @@
       <c r="D17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1018,12 +1004,8 @@
       <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1033,13 +1015,13 @@
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1049,13 +1031,13 @@
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1067,11 +1049,11 @@
       <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1083,11 +1065,11 @@
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1099,11 +1081,11 @@
       <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1115,11 +1097,11 @@
       <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1131,11 +1113,11 @@
       <c r="C25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1151,9 +1133,7 @@
         <v>57</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1168,12 +1148,8 @@
       <c r="D27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1183,17 +1159,13 @@
         <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1205,11 +1177,11 @@
       <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\street\Desktop\AulaTOO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\street\Desktop\AulaOrientacaoObjetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Relação de Alunos</t>
   </si>
@@ -727,8 +727,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,11 +795,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
@@ -813,9 +811,7 @@
       <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
@@ -829,9 +825,7 @@
       <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -855,11 +849,9 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
@@ -873,9 +865,7 @@
       <c r="C10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
@@ -889,9 +879,7 @@
       <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
@@ -905,9 +893,7 @@
       <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -921,9 +907,7 @@
       <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -935,11 +919,9 @@
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -953,9 +935,7 @@
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
@@ -983,11 +963,9 @@
         <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
@@ -1001,9 +979,7 @@
       <c r="C18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -1015,11 +991,9 @@
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
@@ -1031,11 +1005,9 @@
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
@@ -1049,9 +1021,7 @@
       <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
@@ -1065,9 +1035,7 @@
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
@@ -1081,9 +1049,7 @@
       <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
@@ -1097,9 +1063,7 @@
       <c r="C24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
@@ -1113,9 +1077,7 @@
       <c r="C25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
@@ -1129,9 +1091,7 @@
       <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
@@ -1143,11 +1103,9 @@
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
@@ -1161,9 +1119,7 @@
       <c r="C28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
@@ -1177,9 +1133,7 @@
       <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
